--- a/results-data/analysis/normal/analysis - normal - large.xlsx
+++ b/results-data/analysis/normal/analysis - normal - large.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\analysis\normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCE32D1-1BFE-4E94-9E33-ABDB3A05CC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FD45DD-97C6-4740-AF95-9D2022E6F5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random - small" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'random - small'!$A$27:$L$320</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
   <si>
     <t>Time</t>
   </si>
@@ -62,100 +65,13 @@
     <t>BRANCH AND BOUND DFS</t>
   </si>
   <si>
-    <t>0.002424</t>
-  </si>
-  <si>
-    <t>0.0024239999999999995</t>
-  </si>
-  <si>
     <t>Dynamic Programming</t>
-  </si>
-  <si>
-    <t>0.004424</t>
-  </si>
-  <si>
-    <t>0.005319</t>
-  </si>
-  <si>
-    <t>0.004744999999999998</t>
-  </si>
-  <si>
-    <t>0.0049949999999999994</t>
-  </si>
-  <si>
-    <t>0.007293999999999999</t>
-  </si>
-  <si>
-    <t>0.0056738</t>
-  </si>
-  <si>
-    <t>0.0051979999999999995</t>
-  </si>
-  <si>
-    <t>0.005618</t>
-  </si>
-  <si>
-    <t>0.0054535999999999986</t>
   </si>
   <si>
     <t>Dynamic Programming TOP DOWN</t>
   </si>
   <si>
-    <t>1.08116</t>
-  </si>
-  <si>
-    <t>1.19092</t>
-  </si>
-  <si>
-    <t>1.1799206000000002</t>
-  </si>
-  <si>
-    <t>1.78894</t>
-  </si>
-  <si>
-    <t>1.8143619999999998</t>
-  </si>
-  <si>
-    <t>1.8117457999999995</t>
-  </si>
-  <si>
-    <t>1.909614</t>
-  </si>
-  <si>
-    <t>1.934931</t>
-  </si>
-  <si>
-    <t>1.9322690999999999</t>
-  </si>
-  <si>
     <t>Dynamic Programming FPTAS</t>
-  </si>
-  <si>
-    <t>0.007228</t>
-  </si>
-  <si>
-    <t>0.013564</t>
-  </si>
-  <si>
-    <t>0.008465799999999999</t>
-  </si>
-  <si>
-    <t>0.007821999999999999</t>
-  </si>
-  <si>
-    <t>0.011637999999999999</t>
-  </si>
-  <si>
-    <t>0.0082607</t>
-  </si>
-  <si>
-    <t>0.007878999999999999</t>
-  </si>
-  <si>
-    <t>0.011757</t>
-  </si>
-  <si>
-    <t>0.0084209</t>
   </si>
   <si>
     <t>Genetic No optima</t>
@@ -164,76 +80,10 @@
     <t>Greedy value</t>
   </si>
   <si>
-    <t>0.002608</t>
-  </si>
-  <si>
-    <t>0.006385</t>
-  </si>
-  <si>
-    <t>0.0035554000000000002</t>
-  </si>
-  <si>
-    <t>0.002672</t>
-  </si>
-  <si>
-    <t>0.00729</t>
-  </si>
-  <si>
-    <t>0.0035727000000000003</t>
-  </si>
-  <si>
-    <t>0.051813</t>
-  </si>
-  <si>
-    <t>0.013281700000000002</t>
-  </si>
-  <si>
     <t>Greedy weight</t>
   </si>
   <si>
-    <t>0.0067469999999999995</t>
-  </si>
-  <si>
-    <t>0.003757</t>
-  </si>
-  <si>
-    <t>0.005102</t>
-  </si>
-  <si>
-    <t>0.0032612</t>
-  </si>
-  <si>
-    <t>0.007749</t>
-  </si>
-  <si>
-    <t>0.0037241999999999996</t>
-  </si>
-  <si>
     <t>RANDOM CMCM</t>
-  </si>
-  <si>
-    <t>0.000594</t>
-  </si>
-  <si>
-    <t>0.000712</t>
-  </si>
-  <si>
-    <t>0.0006203</t>
-  </si>
-  <si>
-    <t>0.0005909999999999999</t>
-  </si>
-  <si>
-    <t>0.0006555</t>
-  </si>
-  <si>
-    <t>0.000567</t>
-  </si>
-  <si>
-    <t>0.00074</t>
-  </si>
-  <si>
-    <t>0.0006682</t>
   </si>
   <si>
     <t>Branch &amp; bound bfs</t>
@@ -255,6 +105,9 @@
   </si>
   <si>
     <t>algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPARISON ALGORITHM / TIME </t>
   </si>
 </sst>
 </file>
@@ -373,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -401,14 +254,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1966,7 +1822,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$C$299</c:f>
+              <c:f>'random - small'!$C$303</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1987,7 +1843,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'random - small'!$B$300:$B$307</c:f>
+              <c:f>'random - small'!$B$304:$B$311</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2019,7 +1875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'random - small'!$C$300:$C$307</c:f>
+              <c:f>'random - small'!$C$304:$C$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3635,7 +3491,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$95:$D$97</c:f>
+              <c:f>'random - small'!$D$91:$D$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3708,7 +3564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$95:$B$97</c:f>
+              <c:f>'random - small'!$B$91:$B$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3781,7 +3637,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$95:$C$97</c:f>
+              <c:f>'random - small'!$C$91:$C$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4252,7 +4108,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$124:$D$126</c:f>
+              <c:f>'random - small'!$D$116:$D$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4325,7 +4181,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$124:$B$126</c:f>
+              <c:f>'random - small'!$B$116:$B$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4398,7 +4254,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$124:$C$126</c:f>
+              <c:f>'random - small'!$C$116:$C$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4869,7 +4725,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$154:$D$156</c:f>
+              <c:f>'random - small'!$D$147:$D$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4942,7 +4798,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$154:$B$156</c:f>
+              <c:f>'random - small'!$B$147:$B$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5015,7 +4871,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$154:$C$156</c:f>
+              <c:f>'random - small'!$C$147:$C$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5491,7 +5347,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$183:$D$185</c:f>
+              <c:f>'random - small'!$D$175:$D$177</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5564,7 +5420,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$183:$B$185</c:f>
+              <c:f>'random - small'!$B$175:$B$177</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5637,7 +5493,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$183:$C$185</c:f>
+              <c:f>'random - small'!$C$175:$C$177</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6108,7 +5964,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$212:$D$214</c:f>
+              <c:f>'random - small'!$D$203:$D$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6181,7 +6037,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$212:$B$214</c:f>
+              <c:f>'random - small'!$B$203:$B$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6254,7 +6110,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$212:$C$214</c:f>
+              <c:f>'random - small'!$C$203:$C$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7196,7 +7052,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -13383,15 +13239,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>397566</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:colOff>356745</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>70402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1216717</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>65112</xdr:rowOff>
+      <xdr:colOff>1175896</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>160362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13420,16 +13276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>870857</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>40586</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>65112</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1044245</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>146754</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13458,16 +13314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>132522</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>57978</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>46937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>297347</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>147938</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1086561</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>134330</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13497,14 +13353,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1184413</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:colOff>572091</xdr:colOff>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2003564</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:colOff>1391242</xdr:colOff>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>7134</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13535,15 +13391,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1383195</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>140804</xdr:rowOff>
+      <xdr:colOff>485124</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>168018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>148259</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>40264</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1304867</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>67478</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13573,15 +13429,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1126434</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>115956</xdr:rowOff>
+      <xdr:colOff>568541</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>170385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1945585</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>15416</xdr:rowOff>
+      <xdr:colOff>1387692</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>69845</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13611,15 +13467,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>869674</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:colOff>311782</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>137254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1688825</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>172786</xdr:rowOff>
+      <xdr:colOff>1130933</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>36714</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13687,15 +13543,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1192694</xdr:colOff>
-      <xdr:row>298</xdr:row>
-      <xdr:rowOff>53008</xdr:rowOff>
+      <xdr:colOff>598712</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>139383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57979</xdr:colOff>
-      <xdr:row>317</xdr:row>
-      <xdr:rowOff>140805</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>780931</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>36680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13736,8 +13592,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2DDCE545-C587-465E-9BBC-2846233D57AB}" name="Tableau110121416" displayName="Tableau110121416" ref="I123:K126" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="I123:K126" xr:uid="{2DDCE545-C587-465E-9BBC-2846233D57AB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2DDCE545-C587-465E-9BBC-2846233D57AB}" name="Tableau110121416" displayName="Tableau110121416" ref="I115:K118" totalsRowShown="0" headerRowDxfId="33">
+  <autoFilter ref="I115:K118" xr:uid="{2DDCE545-C587-465E-9BBC-2846233D57AB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D88C5A72-02C2-425C-B8D1-F217C18E874C}" name="min"/>
     <tableColumn id="2" xr3:uid="{229FF322-8DC8-492B-8F0E-923338D4E912}" name="max"/>
@@ -13748,8 +13604,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}" name="Tableau2911131517" displayName="Tableau2911131517" ref="C153:E156" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="C153:E156" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}" name="Tableau2911131517" displayName="Tableau2911131517" ref="C146:E149" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="C146:E149" xr:uid="{B6E3809B-BF25-4F6C-BE16-620DF4829989}"/>
   <tableColumns count="3">
     <tableColumn id="8" xr3:uid="{37F5D141-3361-48AB-8D60-B8066322E04F}" name="max" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{5EE5423B-437C-4820-9DF4-DEE5F6EFDAE2}" name="average" dataDxfId="29"/>
@@ -13760,8 +13616,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}" name="Tableau11012141618" displayName="Tableau11012141618" ref="I153:K156" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="I153:K156" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}" name="Tableau11012141618" displayName="Tableau11012141618" ref="I146:K149" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="I146:K149" xr:uid="{426873A1-5386-45C0-9A9E-C970358F4ACE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{54899AD9-A129-4289-B3BF-47F37C8225C2}" name="min"/>
     <tableColumn id="2" xr3:uid="{9F1792BC-2CF6-4CE3-8256-BDCBB2A641B5}" name="max"/>
@@ -13772,8 +13628,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{FAFD9DAA-DC69-4D80-99DC-85F49FF1049A}" name="Tableau291113151719" displayName="Tableau291113151719" ref="C182:E185" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="C182:E185" xr:uid="{FAFD9DAA-DC69-4D80-99DC-85F49FF1049A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{FAFD9DAA-DC69-4D80-99DC-85F49FF1049A}" name="Tableau291113151719" displayName="Tableau291113151719" ref="C174:E177" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="C174:E177" xr:uid="{FAFD9DAA-DC69-4D80-99DC-85F49FF1049A}"/>
   <tableColumns count="3">
     <tableColumn id="8" xr3:uid="{44CAADA5-2C70-4C5C-B7B7-CAB39E9F290D}" name="max" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{42CB536F-4566-47FC-AC0C-167F2D41F9D0}" name="average" dataDxfId="23"/>
@@ -13784,8 +13640,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B741A913-D46B-48FC-999C-EBED8D8B6AB2}" name="Tableau1101214161820" displayName="Tableau1101214161820" ref="I182:K185" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="I182:K185" xr:uid="{B741A913-D46B-48FC-999C-EBED8D8B6AB2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B741A913-D46B-48FC-999C-EBED8D8B6AB2}" name="Tableau1101214161820" displayName="Tableau1101214161820" ref="I174:K177" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="I174:K177" xr:uid="{B741A913-D46B-48FC-999C-EBED8D8B6AB2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{64AE5202-915E-48EA-9C33-50EA360E7A60}" name="min"/>
     <tableColumn id="2" xr3:uid="{547EB922-EB7C-411A-9C9B-BDBCFE83D96A}" name="max"/>
@@ -13796,8 +13652,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{E0D7310A-F495-4D93-A491-550FAC699D46}" name="Tableau29111315171921" displayName="Tableau29111315171921" ref="C211:E214" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="C211:E214" xr:uid="{E0D7310A-F495-4D93-A491-550FAC699D46}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{E0D7310A-F495-4D93-A491-550FAC699D46}" name="Tableau29111315171921" displayName="Tableau29111315171921" ref="C202:E205" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="C202:E205" xr:uid="{E0D7310A-F495-4D93-A491-550FAC699D46}"/>
   <tableColumns count="3">
     <tableColumn id="8" xr3:uid="{755EBA57-E4A6-4D31-9C52-3ED1CE025EFE}" name="max" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{B2887FC5-C7DD-4371-AEDF-DBB0D117E03F}" name="average" dataDxfId="17"/>
@@ -13808,8 +13664,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{B6724C78-0615-4096-A85A-EC778F3D65EA}" name="Tableau110121416182022" displayName="Tableau110121416182022" ref="I211:K214" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="I211:K214" xr:uid="{B6724C78-0615-4096-A85A-EC778F3D65EA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{B6724C78-0615-4096-A85A-EC778F3D65EA}" name="Tableau110121416182022" displayName="Tableau110121416182022" ref="I202:K205" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="I202:K205" xr:uid="{B6724C78-0615-4096-A85A-EC778F3D65EA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{ECDEBB0F-314F-4AFE-80F2-5CF6F35DD8AA}" name="min"/>
     <tableColumn id="2" xr3:uid="{75227A78-1954-478F-8FE3-3A6E8C11FB2B}" name="max"/>
@@ -13880,8 +13736,8 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{085EFACC-9000-42FF-918A-D9FF6A491A2B}" name="Tableau4" displayName="Tableau4" ref="B299:C307" totalsRowShown="0">
-  <autoFilter ref="B299:C307" xr:uid="{085EFACC-9000-42FF-918A-D9FF6A491A2B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{085EFACC-9000-42FF-918A-D9FF6A491A2B}" name="Tableau4" displayName="Tableau4" ref="B303:C311" totalsRowShown="0">
+  <autoFilter ref="B303:C311" xr:uid="{085EFACC-9000-42FF-918A-D9FF6A491A2B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{22C03507-3BDC-429B-8354-3FA891929FFA}" name="algo"/>
     <tableColumn id="2" xr3:uid="{7B890F80-B338-4242-B8F2-EF566B23D3DB}" name="average" dataDxfId="0"/>
@@ -13939,8 +13795,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8C72F2C8-50A4-42DE-B1D1-C96896A49B4F}" name="Tableau291113" displayName="Tableau291113" ref="C94:E97" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="C94:E97" xr:uid="{8C72F2C8-50A4-42DE-B1D1-C96896A49B4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8C72F2C8-50A4-42DE-B1D1-C96896A49B4F}" name="Tableau291113" displayName="Tableau291113" ref="C90:E93" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="C90:E93" xr:uid="{8C72F2C8-50A4-42DE-B1D1-C96896A49B4F}"/>
   <tableColumns count="3">
     <tableColumn id="8" xr3:uid="{37080264-53EC-4388-815F-0BF6AC40ED1C}" name="max" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{002DCF62-821F-44C0-87AF-9D8974E0288C}" name="average" dataDxfId="41"/>
@@ -13951,8 +13807,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A239DDF6-BB5B-4916-9D2B-95DC80C9E407}" name="Tableau1101214" displayName="Tableau1101214" ref="I94:K97" totalsRowShown="0" headerRowDxfId="39">
-  <autoFilter ref="I94:K97" xr:uid="{A239DDF6-BB5B-4916-9D2B-95DC80C9E407}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A239DDF6-BB5B-4916-9D2B-95DC80C9E407}" name="Tableau1101214" displayName="Tableau1101214" ref="I90:K93" totalsRowShown="0" headerRowDxfId="39">
+  <autoFilter ref="I90:K93" xr:uid="{A239DDF6-BB5B-4916-9D2B-95DC80C9E407}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{12366A54-2470-4928-A29A-235030C0A3B8}" name="min"/>
     <tableColumn id="2" xr3:uid="{89D5FEC2-9CCF-44EC-9657-7F86B5138F56}" name="max"/>
@@ -13963,8 +13819,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{87CDB4B3-49F6-4DAE-B755-8EBE33E5D79D}" name="Tableau29111315" displayName="Tableau29111315" ref="C123:E126" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="C123:E126" xr:uid="{87CDB4B3-49F6-4DAE-B755-8EBE33E5D79D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{87CDB4B3-49F6-4DAE-B755-8EBE33E5D79D}" name="Tableau29111315" displayName="Tableau29111315" ref="C115:E118" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="C115:E118" xr:uid="{87CDB4B3-49F6-4DAE-B755-8EBE33E5D79D}"/>
   <tableColumns count="3">
     <tableColumn id="8" xr3:uid="{876D4DCB-F3D7-4336-BEA8-9122EB92DBF3}" name="max" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{954A7D64-1F9B-4C73-955B-0A1CA013C4EA}" name="average" dataDxfId="35"/>
@@ -14295,10 +14151,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K307"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:K311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B299" sqref="B299:C307"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14315,17 +14174,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -14431,55 +14290,55 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="I32" s="11" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="I32" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
@@ -14580,55 +14439,55 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="I62" s="11" t="s">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="I62" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
@@ -14672,14 +14531,14 @@
       <c r="G64" s="1">
         <v>1000</v>
       </c>
-      <c r="I64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>11</v>
+      <c r="I64" s="10">
+        <v>2.4239999999999999E-3</v>
+      </c>
+      <c r="J64" s="10">
+        <v>2.4239999999999999E-3</v>
+      </c>
+      <c r="K64" s="10">
+        <v>2.42399999999999E-3</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
@@ -14695,14 +14554,14 @@
       <c r="E65" s="3">
         <v>100</v>
       </c>
-      <c r="I65" t="s">
-        <v>10</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>11</v>
+      <c r="I65" s="10">
+        <v>2.4239999999999999E-3</v>
+      </c>
+      <c r="J65" s="10">
+        <v>2.4239999999999999E-3</v>
+      </c>
+      <c r="K65" s="10">
+        <v>2.42399999999999E-3</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
@@ -14718,811 +14577,811 @@
       <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="10">
+        <v>2.4239999999999999E-3</v>
+      </c>
+      <c r="J66" s="10">
+        <v>2.4239999999999999E-3</v>
+      </c>
+      <c r="K66" s="10">
+        <v>2.42399999999999E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
+      <c r="I89" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
+      <c r="B90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
+      <c r="B91" s="7">
+        <v>4.0890693664550698E-2</v>
+      </c>
+      <c r="C91" s="8">
+        <v>0.112704515457153</v>
+      </c>
+      <c r="D91" s="8">
+        <v>6.0090613365173302E-2</v>
+      </c>
+      <c r="E91" s="3">
+        <v>10</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I91" s="10">
+        <v>4.424E-3</v>
+      </c>
+      <c r="J91" s="10">
+        <v>5.3189999999999999E-3</v>
+      </c>
+      <c r="K91" s="10">
+        <v>4.7449999999999897E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="9">
+        <v>0.30181837081909102</v>
+      </c>
+      <c r="C92" s="8">
+        <v>0.55662345886230402</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0.39198276996612502</v>
+      </c>
+      <c r="E92" s="3">
+        <v>100</v>
+      </c>
+      <c r="I92" s="10">
+        <v>4.9949999999999899E-3</v>
+      </c>
+      <c r="J92" s="10">
+        <v>7.2939999999999897E-3</v>
+      </c>
+      <c r="K92" s="10">
+        <v>5.6737999999999997E-3</v>
+      </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="7">
+        <v>4.5172829627990696</v>
+      </c>
+      <c r="C93" s="8">
+        <v>6.2054858207702601</v>
+      </c>
+      <c r="D93" s="8">
+        <v>4.9471215724944999</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I93" s="10">
+        <v>5.19799999999999E-3</v>
+      </c>
+      <c r="J93" s="10">
+        <v>5.6179999999999997E-3</v>
+      </c>
+      <c r="K93" s="10">
+        <v>5.4535999999999899E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="I93" s="11" t="s">
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="I114" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="2" t="s">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K115" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="7">
-        <v>4.0890693664550698E-2</v>
-      </c>
-      <c r="C95" s="8">
-        <v>0.112704515457153</v>
-      </c>
-      <c r="D95" s="8">
-        <v>6.0090613365173302E-2</v>
-      </c>
-      <c r="E95" s="3">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="7">
+        <v>0.50923037528991699</v>
+      </c>
+      <c r="C116" s="8">
+        <v>1.1449439525604199</v>
+      </c>
+      <c r="D116" s="8">
+        <v>0.78601255416870097</v>
+      </c>
+      <c r="E116" s="3">
         <v>10</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G116" s="1">
         <v>1000</v>
       </c>
-      <c r="I95" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" t="s">
-        <v>14</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>15</v>
+      <c r="I116" s="10">
+        <v>1.0811599999999999</v>
+      </c>
+      <c r="J116" s="10">
+        <v>1.19092</v>
+      </c>
+      <c r="K116" s="10">
+        <v>1.1799206</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="9">
-        <v>0.30181837081909102</v>
-      </c>
-      <c r="C96" s="8">
-        <v>0.55662345886230402</v>
-      </c>
-      <c r="D96" s="8">
-        <v>0.39198276996612502</v>
-      </c>
-      <c r="E96" s="3">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="9">
+        <v>0.53759479522705</v>
+      </c>
+      <c r="C117" s="8">
+        <v>0.64687299728393499</v>
+      </c>
+      <c r="D117" s="8">
+        <v>0.57575030326843202</v>
+      </c>
+      <c r="E117" s="3">
         <v>100</v>
       </c>
-      <c r="I96" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="7">
-        <v>4.5172829627990696</v>
-      </c>
-      <c r="C97" s="8">
-        <v>6.2054858207702601</v>
-      </c>
-      <c r="D97" s="8">
-        <v>4.9471215724944999</v>
-      </c>
-      <c r="E97" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J97" t="s">
-        <v>20</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>21</v>
+      <c r="I117" s="10">
+        <v>1.78894</v>
+      </c>
+      <c r="J117" s="10">
+        <v>1.81436199999999</v>
+      </c>
+      <c r="K117" s="10">
+        <v>1.81174579999999</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
+      <c r="B118" s="7">
+        <v>0.68647885322570801</v>
+      </c>
+      <c r="C118" s="8">
+        <v>1.4278523921966499</v>
+      </c>
+      <c r="D118" s="8">
+        <v>0.90089268684387203</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I118" s="10">
+        <v>1.9096139999999999</v>
+      </c>
+      <c r="J118" s="10">
+        <v>1.934931</v>
+      </c>
+      <c r="K118" s="10">
+        <v>1.9322690999999901</v>
+      </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="11" t="s">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="I122" s="11" t="s">
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="I145" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="2" t="s">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E146" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I123" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="J146" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K123" s="3" t="s">
+      <c r="K146" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="7">
-        <v>0.50923037528991699</v>
-      </c>
-      <c r="C124" s="8">
-        <v>1.1449439525604199</v>
-      </c>
-      <c r="D124" s="8">
-        <v>0.78601255416870097</v>
-      </c>
-      <c r="E124" s="3">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="7">
+        <v>0.153968095779418</v>
+      </c>
+      <c r="C147" s="8">
+        <v>0.24937534332275299</v>
+      </c>
+      <c r="D147" s="8">
+        <v>0.200872135162353</v>
+      </c>
+      <c r="E147" s="3">
         <v>10</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G147" s="1">
         <v>1000</v>
       </c>
-      <c r="I124" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J124" t="s">
-        <v>24</v>
-      </c>
-      <c r="K124" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="9">
-        <v>0.53759479522705</v>
-      </c>
-      <c r="C125" s="8">
-        <v>0.64687299728393499</v>
-      </c>
-      <c r="D125" s="8">
-        <v>0.57575030326843202</v>
-      </c>
-      <c r="E125" s="3">
-        <v>100</v>
-      </c>
-      <c r="I125" t="s">
-        <v>26</v>
-      </c>
-      <c r="J125" t="s">
-        <v>27</v>
-      </c>
-      <c r="K125" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="7">
-        <v>0.68647885322570801</v>
-      </c>
-      <c r="C126" s="8">
-        <v>1.4278523921966499</v>
-      </c>
-      <c r="D126" s="8">
-        <v>0.90089268684387203</v>
-      </c>
-      <c r="E126" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I126" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J126" t="s">
-        <v>30</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>31</v>
+      <c r="I147" s="10">
+        <v>7.228E-3</v>
+      </c>
+      <c r="J147" s="10">
+        <v>1.3564E-2</v>
+      </c>
+      <c r="K147" s="10">
+        <v>8.4657999999999903E-3</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
+      <c r="B148" s="9">
+        <v>0.36399650573730402</v>
+      </c>
+      <c r="C148" s="8">
+        <v>0.66494560241699197</v>
+      </c>
+      <c r="D148" s="8">
+        <v>0.44757394790649402</v>
+      </c>
+      <c r="E148" s="3">
+        <v>100</v>
+      </c>
+      <c r="I148" s="10">
+        <v>7.8219999999999904E-3</v>
+      </c>
+      <c r="J148" s="10">
+        <v>1.16379999999999E-2</v>
+      </c>
+      <c r="K148" s="10">
+        <v>8.2606999999999993E-3</v>
+      </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
+      <c r="B149" s="7">
+        <v>4.5475723743438703</v>
+      </c>
+      <c r="C149" s="8">
+        <v>5.4439115524291903</v>
+      </c>
+      <c r="D149" s="8">
+        <v>4.8179067134857103</v>
+      </c>
+      <c r="E149" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I149" s="10">
+        <v>7.8789999999999902E-3</v>
+      </c>
+      <c r="J149" s="10">
+        <v>1.1757E-2</v>
+      </c>
+      <c r="K149" s="10">
+        <v>8.4209000000000003E-3</v>
+      </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="13"/>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="11" t="s">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="13"/>
+      <c r="K170" s="13"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="13"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="I152" s="11" t="s">
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="I173" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B153" s="2" t="s">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D174" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E174" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I153" s="3" t="s">
+      <c r="I174" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J153" s="3" t="s">
+      <c r="J174" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K153" s="3" t="s">
+      <c r="K174" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B154" s="7">
-        <v>0.153968095779418</v>
-      </c>
-      <c r="C154" s="8">
-        <v>0.24937534332275299</v>
-      </c>
-      <c r="D154" s="8">
-        <v>0.200872135162353</v>
-      </c>
-      <c r="E154" s="3">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175" s="5">
+        <v>8.9743137359619106E-3</v>
+      </c>
+      <c r="C175" s="3">
+        <v>8.1758499145507799E-2</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2.6781415939331001E-2</v>
+      </c>
+      <c r="E175" s="3">
         <v>10</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G175" s="1">
         <v>1000</v>
       </c>
-      <c r="I154" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J154" t="s">
-        <v>34</v>
-      </c>
-      <c r="K154" s="4" t="s">
-        <v>35</v>
+      <c r="I175" s="4">
+        <v>4.5760000000000002E-3</v>
+      </c>
+      <c r="J175">
+        <v>1.0295E-2</v>
+      </c>
+      <c r="K175" s="4">
+        <v>5.0565200000000001E-3</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="9">
-        <v>0.36399650573730402</v>
-      </c>
-      <c r="C155" s="8">
-        <v>0.66494560241699197</v>
-      </c>
-      <c r="D155" s="8">
-        <v>0.44757394790649402</v>
-      </c>
-      <c r="E155" s="3">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="6">
+        <v>8.97574424743652E-3</v>
+      </c>
+      <c r="C176" s="3">
+        <v>0.18749904632568301</v>
+      </c>
+      <c r="D176" s="3">
+        <v>6.8376169204711901E-2</v>
+      </c>
+      <c r="E176" s="3">
         <v>100</v>
       </c>
-      <c r="I155" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J155" t="s">
-        <v>37</v>
-      </c>
-      <c r="K155" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B156" s="7">
-        <v>4.5475723743438703</v>
-      </c>
-      <c r="C156" s="8">
-        <v>5.4439115524291903</v>
-      </c>
-      <c r="D156" s="8">
-        <v>4.8179067134857103</v>
-      </c>
-      <c r="E156" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I156" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J156" t="s">
-        <v>40</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>41</v>
+      <c r="I176">
+        <v>4.5760000000000002E-3</v>
+      </c>
+      <c r="J176">
+        <v>7.9849999999999904E-3</v>
+      </c>
+      <c r="K176">
+        <v>5.4088799999999996E-3</v>
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
-      <c r="H177" s="12"/>
-      <c r="I177" s="12"/>
-      <c r="J177" s="12"/>
-      <c r="K177" s="12"/>
+      <c r="B177" s="5">
+        <v>7.3522028923034597</v>
+      </c>
+      <c r="C177" s="3">
+        <v>8.9627935886383003</v>
+      </c>
+      <c r="D177" s="3">
+        <v>8.1846083402633596</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I177" s="4">
+        <v>5.40099999999999E-3</v>
+      </c>
+      <c r="J177">
+        <v>5.7659999999999899E-3</v>
+      </c>
+      <c r="K177" s="4">
+        <v>5.5888999999999999E-3</v>
+      </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="12"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="12"/>
-      <c r="G178" s="12"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="12"/>
-      <c r="K178" s="12"/>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B197" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="13"/>
+      <c r="I197" s="13"/>
+      <c r="J197" s="13"/>
+      <c r="K197" s="13"/>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="13"/>
+      <c r="K198" s="13"/>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="11" t="s">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B199" s="13"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="13"/>
+      <c r="K199" s="13"/>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B201" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
-      <c r="I181" s="11" t="s">
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="I201" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J181" s="11"/>
-      <c r="K181" s="11"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="2" t="s">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B202" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C202" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D202" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E202" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I182" s="3" t="s">
+      <c r="I202" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J182" s="3" t="s">
+      <c r="J202" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K182" s="3" t="s">
+      <c r="K202" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" s="5">
-        <v>8.9743137359619106E-3</v>
-      </c>
-      <c r="C183" s="3">
-        <v>8.1758499145507799E-2</v>
-      </c>
-      <c r="D183" s="3">
-        <v>2.6781415939331001E-2</v>
-      </c>
-      <c r="E183" s="3">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B203" s="7">
+        <v>3.7898540496826102E-2</v>
+      </c>
+      <c r="C203" s="8">
+        <v>0.218886613845825</v>
+      </c>
+      <c r="D203" s="8">
+        <v>0.116007900238037</v>
+      </c>
+      <c r="E203" s="3">
         <v>10</v>
       </c>
-      <c r="G183" s="1">
+      <c r="G203" s="1">
         <v>1000</v>
       </c>
-      <c r="I183" s="4">
-        <v>4.5760000000000002E-3</v>
-      </c>
-      <c r="J183">
-        <v>1.0295E-2</v>
-      </c>
-      <c r="K183" s="4">
-        <v>5.0565200000000001E-3</v>
+      <c r="I203" s="10">
+        <v>2.6080000000000001E-3</v>
+      </c>
+      <c r="J203" s="10">
+        <v>6.3850000000000001E-3</v>
+      </c>
+      <c r="K203" s="10">
+        <v>3.5553999999999998E-3</v>
       </c>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B184" s="6">
-        <v>8.97574424743652E-3</v>
-      </c>
-      <c r="C184" s="3">
-        <v>0.18749904632568301</v>
-      </c>
-      <c r="D184" s="3">
-        <v>6.8376169204711901E-2</v>
-      </c>
-      <c r="E184" s="3">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B204" s="9">
+        <v>4.08878326416015E-2</v>
+      </c>
+      <c r="C204" s="8">
+        <v>4.8872709274291902E-2</v>
+      </c>
+      <c r="D204" s="8">
+        <v>4.3483734130859299E-2</v>
+      </c>
+      <c r="E204" s="3">
         <v>100</v>
       </c>
-      <c r="I184">
-        <v>4.5760000000000002E-3</v>
-      </c>
-      <c r="J184">
-        <v>7.9849999999999904E-3</v>
-      </c>
-      <c r="K184">
-        <v>5.4088799999999996E-3</v>
+      <c r="I204" s="10">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="J204" s="10">
+        <v>7.2899999999999996E-3</v>
+      </c>
+      <c r="K204" s="10">
+        <v>3.5726999999999998E-3</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B185" s="5">
-        <v>7.3522028923034597</v>
-      </c>
-      <c r="C185" s="3">
-        <v>8.9627935886383003</v>
-      </c>
-      <c r="D185" s="3">
-        <v>8.1846083402633596</v>
-      </c>
-      <c r="E185" s="3">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B205" s="7">
+        <v>3.78971099853515E-2</v>
+      </c>
+      <c r="C205" s="8">
+        <v>1.9645137786865201</v>
+      </c>
+      <c r="D205" s="8">
+        <v>0.23819384574890101</v>
+      </c>
+      <c r="E205" s="3">
         <v>1000</v>
       </c>
-      <c r="I185" s="4">
-        <v>5.40099999999999E-3</v>
-      </c>
-      <c r="J185">
-        <v>5.7659999999999899E-3</v>
-      </c>
-      <c r="K185" s="4">
-        <v>5.5888999999999999E-3</v>
-      </c>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
-      <c r="G206" s="12"/>
-      <c r="H206" s="12"/>
-      <c r="I206" s="12"/>
-      <c r="J206" s="12"/>
-      <c r="K206" s="12"/>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="12"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="12"/>
-      <c r="G207" s="12"/>
-      <c r="H207" s="12"/>
-      <c r="I207" s="12"/>
-      <c r="J207" s="12"/>
-      <c r="K207" s="12"/>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="12"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="12"/>
-      <c r="G208" s="12"/>
-      <c r="H208" s="12"/>
-      <c r="I208" s="12"/>
-      <c r="J208" s="12"/>
-      <c r="K208" s="12"/>
-    </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
-      <c r="I210" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J210" s="11"/>
-      <c r="K210" s="11"/>
-    </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I211" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J211" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K211" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B212" s="7">
-        <v>3.7898540496826102E-2</v>
-      </c>
-      <c r="C212" s="8">
-        <v>0.218886613845825</v>
-      </c>
-      <c r="D212" s="8">
-        <v>0.116007900238037</v>
-      </c>
-      <c r="E212" s="3">
-        <v>10</v>
-      </c>
-      <c r="G212" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I212" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J212" t="s">
-        <v>45</v>
-      </c>
-      <c r="K212" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="9">
-        <v>4.08878326416015E-2</v>
-      </c>
-      <c r="C213" s="8">
-        <v>4.8872709274291902E-2</v>
-      </c>
-      <c r="D213" s="8">
-        <v>4.3483734130859299E-2</v>
-      </c>
-      <c r="E213" s="3">
-        <v>100</v>
-      </c>
-      <c r="I213" t="s">
-        <v>47</v>
-      </c>
-      <c r="J213" t="s">
-        <v>48</v>
-      </c>
-      <c r="K213" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B214" s="7">
-        <v>3.78971099853515E-2</v>
-      </c>
-      <c r="C214" s="8">
-        <v>1.9645137786865201</v>
-      </c>
-      <c r="D214" s="8">
-        <v>0.23819384574890101</v>
-      </c>
-      <c r="E214" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I214" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J214" t="s">
-        <v>50</v>
-      </c>
-      <c r="K214" s="4" t="s">
-        <v>51</v>
+      <c r="I205" s="10">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="J205" s="10">
+        <v>5.1812999999999998E-2</v>
+      </c>
+      <c r="K205" s="10">
+        <v>1.32817E-2</v>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
-      <c r="F236" s="12"/>
-      <c r="G236" s="12"/>
-      <c r="H236" s="12"/>
-      <c r="I236" s="12"/>
-      <c r="J236" s="12"/>
-      <c r="K236" s="12"/>
+      <c r="B236" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+      <c r="G236" s="13"/>
+      <c r="H236" s="13"/>
+      <c r="I236" s="13"/>
+      <c r="J236" s="13"/>
+      <c r="K236" s="13"/>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="12"/>
-      <c r="C237" s="12"/>
-      <c r="D237" s="12"/>
-      <c r="E237" s="12"/>
-      <c r="F237" s="12"/>
-      <c r="G237" s="12"/>
-      <c r="H237" s="12"/>
-      <c r="I237" s="12"/>
-      <c r="J237" s="12"/>
-      <c r="K237" s="12"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13"/>
+      <c r="G237" s="13"/>
+      <c r="H237" s="13"/>
+      <c r="I237" s="13"/>
+      <c r="J237" s="13"/>
+      <c r="K237" s="13"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="12"/>
-      <c r="C238" s="12"/>
-      <c r="D238" s="12"/>
-      <c r="E238" s="12"/>
-      <c r="F238" s="12"/>
-      <c r="G238" s="12"/>
-      <c r="H238" s="12"/>
-      <c r="I238" s="12"/>
-      <c r="J238" s="12"/>
-      <c r="K238" s="12"/>
+      <c r="B238" s="13"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
+      <c r="G238" s="13"/>
+      <c r="H238" s="13"/>
+      <c r="I238" s="13"/>
+      <c r="J238" s="13"/>
+      <c r="K238" s="13"/>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
-      <c r="E240" s="11"/>
-      <c r="I240" s="11" t="s">
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="I240" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J240" s="11"/>
-      <c r="K240" s="11"/>
+      <c r="J240" s="12"/>
+      <c r="K240" s="12"/>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
@@ -15566,14 +15425,14 @@
       <c r="G242" s="1">
         <v>1000</v>
       </c>
-      <c r="I242" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J242" t="s">
-        <v>53</v>
-      </c>
-      <c r="K242" t="s">
-        <v>54</v>
+      <c r="I242" s="10">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="J242" s="10">
+        <v>6.74699999999999E-3</v>
+      </c>
+      <c r="K242" s="10">
+        <v>3.7569999999999999E-3</v>
       </c>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.25">
@@ -15589,14 +15448,14 @@
       <c r="E243" s="3">
         <v>100</v>
       </c>
-      <c r="I243" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J243" t="s">
-        <v>55</v>
-      </c>
-      <c r="K243" s="4" t="s">
-        <v>56</v>
+      <c r="I243" s="10">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="J243" s="10">
+        <v>5.1019999999999998E-3</v>
+      </c>
+      <c r="K243" s="10">
+        <v>3.2612000000000001E-3</v>
       </c>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.25">
@@ -15612,66 +15471,66 @@
       <c r="E244" s="3">
         <v>1000</v>
       </c>
-      <c r="I244" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J244" t="s">
-        <v>57</v>
-      </c>
-      <c r="K244" s="4" t="s">
-        <v>58</v>
+      <c r="I244" s="10">
+        <v>2.6719999999999999E-3</v>
+      </c>
+      <c r="J244" s="10">
+        <v>7.7489999999999998E-3</v>
+      </c>
+      <c r="K244" s="10">
+        <v>3.72419999999999E-3</v>
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B267" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C267" s="12"/>
-      <c r="D267" s="12"/>
-      <c r="E267" s="12"/>
-      <c r="F267" s="12"/>
-      <c r="G267" s="12"/>
-      <c r="H267" s="12"/>
-      <c r="I267" s="12"/>
-      <c r="J267" s="12"/>
-      <c r="K267" s="12"/>
+      <c r="B267" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C267" s="13"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="13"/>
+      <c r="G267" s="13"/>
+      <c r="H267" s="13"/>
+      <c r="I267" s="13"/>
+      <c r="J267" s="13"/>
+      <c r="K267" s="13"/>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B268" s="12"/>
-      <c r="C268" s="12"/>
-      <c r="D268" s="12"/>
-      <c r="E268" s="12"/>
-      <c r="F268" s="12"/>
-      <c r="G268" s="12"/>
-      <c r="H268" s="12"/>
-      <c r="I268" s="12"/>
-      <c r="J268" s="12"/>
-      <c r="K268" s="12"/>
+      <c r="B268" s="13"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
+      <c r="G268" s="13"/>
+      <c r="H268" s="13"/>
+      <c r="I268" s="13"/>
+      <c r="J268" s="13"/>
+      <c r="K268" s="13"/>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B269" s="12"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="12"/>
-      <c r="E269" s="12"/>
-      <c r="F269" s="12"/>
-      <c r="G269" s="12"/>
-      <c r="H269" s="12"/>
-      <c r="I269" s="12"/>
-      <c r="J269" s="12"/>
-      <c r="K269" s="12"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="13"/>
+      <c r="E269" s="13"/>
+      <c r="F269" s="13"/>
+      <c r="G269" s="13"/>
+      <c r="H269" s="13"/>
+      <c r="I269" s="13"/>
+      <c r="J269" s="13"/>
+      <c r="K269" s="13"/>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B271" s="11" t="s">
+      <c r="B271" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C271" s="11"/>
-      <c r="D271" s="11"/>
-      <c r="E271" s="11"/>
-      <c r="I271" s="11" t="s">
+      <c r="C271" s="12"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
+      <c r="I271" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J271" s="11"/>
-      <c r="K271" s="11"/>
+      <c r="J271" s="12"/>
+      <c r="K271" s="12"/>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
@@ -15715,14 +15574,14 @@
       <c r="G273" s="1">
         <v>1000</v>
       </c>
-      <c r="I273" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J273" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K273" s="4" t="s">
-        <v>62</v>
+      <c r="I273" s="10">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="J273" s="10">
+        <v>7.1199999999999996E-4</v>
+      </c>
+      <c r="K273" s="10">
+        <v>6.2029999999999995E-4</v>
       </c>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.25">
@@ -15738,14 +15597,14 @@
       <c r="E274" s="3">
         <v>100</v>
       </c>
-      <c r="I274" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J274" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K274" s="4" t="s">
-        <v>64</v>
+      <c r="I274" s="10">
+        <v>5.9099999999999897E-4</v>
+      </c>
+      <c r="J274" s="10">
+        <v>7.1199999999999996E-4</v>
+      </c>
+      <c r="K274" s="10">
+        <v>6.5550000000000005E-4</v>
       </c>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.25">
@@ -15761,131 +15620,170 @@
       <c r="E275" s="3">
         <v>1000</v>
       </c>
-      <c r="I275" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J275" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K275" s="4" t="s">
-        <v>67</v>
+      <c r="I275" s="10">
+        <v>5.6700000000000001E-4</v>
+      </c>
+      <c r="J275" s="10">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="K275" s="10">
+        <v>6.6819999999999998E-4</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
-        <v>74</v>
-      </c>
-      <c r="C299" s="2" t="s">
+    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B297" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C297" s="13"/>
+      <c r="D297" s="13"/>
+      <c r="E297" s="13"/>
+      <c r="F297" s="13"/>
+      <c r="G297" s="13"/>
+      <c r="H297" s="13"/>
+      <c r="I297" s="13"/>
+      <c r="J297" s="13"/>
+      <c r="K297" s="13"/>
+    </row>
+    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="13"/>
+      <c r="F298" s="13"/>
+      <c r="G298" s="13"/>
+      <c r="H298" s="13"/>
+      <c r="I298" s="13"/>
+      <c r="J298" s="13"/>
+      <c r="K298" s="13"/>
+    </row>
+    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B299" s="13"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="13"/>
+      <c r="E299" s="13"/>
+      <c r="F299" s="13"/>
+      <c r="G299" s="13"/>
+      <c r="H299" s="13"/>
+      <c r="I299" s="13"/>
+      <c r="J299" s="13"/>
+      <c r="K299" s="13"/>
+    </row>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>23</v>
+      </c>
+      <c r="C303" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B300" t="s">
-        <v>68</v>
-      </c>
-      <c r="C300" s="13">
+    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>17</v>
+      </c>
+      <c r="C304" s="11">
         <f>D36</f>
         <v>6.7781400680541906E-2</v>
-      </c>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B301" t="s">
-        <v>69</v>
-      </c>
-      <c r="C301" s="13">
-        <f>D66</f>
-        <v>2.0945072174072201E-3</v>
-      </c>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B302" t="s">
-        <v>70</v>
-      </c>
-      <c r="C302" s="13">
-        <f>D97</f>
-        <v>4.9471215724944999</v>
-      </c>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
-        <v>71</v>
-      </c>
-      <c r="C303" s="3">
-        <f>D126</f>
-        <v>0.90089268684387203</v>
-      </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
-        <v>72</v>
-      </c>
-      <c r="C304" s="3">
-        <f>D156</f>
-        <v>4.8179067134857103</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>43</v>
-      </c>
-      <c r="C305" s="3">
-        <f>D214</f>
-        <v>0.23819384574890101</v>
+        <v>18</v>
+      </c>
+      <c r="C305" s="11">
+        <f>D66</f>
+        <v>2.0945072174072201E-3</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>52</v>
-      </c>
-      <c r="C306" s="3">
-        <f>D244</f>
-        <v>4.0753054618835403E-2</v>
+        <v>19</v>
+      </c>
+      <c r="C306" s="11">
+        <f>D93</f>
+        <v>4.9471215724944999</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C307" s="3">
+        <f>D118</f>
+        <v>0.90089268684387203</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>21</v>
+      </c>
+      <c r="C308" s="3">
+        <f>D149</f>
+        <v>4.8179067134857103</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309" s="3">
+        <f>D205</f>
+        <v>0.23819384574890101</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310" s="3">
+        <f>D244</f>
+        <v>4.0753054618835403E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>22</v>
+      </c>
+      <c r="C311" s="3">
         <f>D275</f>
         <v>1.1053529262542701</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="B197:K199"/>
+    <mergeCell ref="B201:E201"/>
+    <mergeCell ref="I201:K201"/>
+    <mergeCell ref="B297:K299"/>
     <mergeCell ref="B236:K238"/>
     <mergeCell ref="B240:E240"/>
     <mergeCell ref="I240:K240"/>
     <mergeCell ref="B267:K269"/>
     <mergeCell ref="B271:E271"/>
     <mergeCell ref="I271:K271"/>
-    <mergeCell ref="B177:K179"/>
-    <mergeCell ref="B181:E181"/>
-    <mergeCell ref="I181:K181"/>
-    <mergeCell ref="B206:K208"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="I210:K210"/>
-    <mergeCell ref="B118:K120"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="I122:K122"/>
-    <mergeCell ref="B148:K150"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="I152:K152"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="I145:K145"/>
+    <mergeCell ref="B169:K171"/>
+    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="I173:K173"/>
     <mergeCell ref="B58:K60"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="I62:K62"/>
-    <mergeCell ref="B89:K91"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="B85:K87"/>
+    <mergeCell ref="B140:K142"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="I32:K32"/>
     <mergeCell ref="B28:K30"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="B110:K112"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="B114:E114"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="21">
     <tablePart r:id="rId3"/>

--- a/results-data/analysis/normal/analysis - normal - large.xlsx
+++ b/results-data/analysis/normal/analysis - normal - large.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\analysis\normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FD45DD-97C6-4740-AF95-9D2022E6F5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DED47B-5EA3-4B39-8D14-6C212306D2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="random - small" sheetId="1" r:id="rId1"/>
+    <sheet name="normal - large" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'random - small'!$A$27:$L$320</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'normal - large'!$A$27:$L$320</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,24 +244,17 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -590,7 +583,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
+              <c:f>'normal - large'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -625,7 +618,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -643,7 +636,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$4:$D$6</c:f>
+              <c:f>'normal - large'!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -698,7 +691,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
+              <c:f>('normal - large'!$E$4,'normal - large'!$E$5,'normal - large'!$E$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -716,7 +709,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$4:$B$6</c:f>
+              <c:f>'normal - large'!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -771,7 +764,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -789,7 +782,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$4:$C$6</c:f>
+              <c:f>'normal - large'!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1207,7 +1200,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
+              <c:f>'normal - large'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1242,7 +1235,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1260,7 +1253,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$273:$D$275</c:f>
+              <c:f>'normal - large'!$D$273:$D$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1315,7 +1308,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
+              <c:f>('normal - large'!$E$4,'normal - large'!$E$5,'normal - large'!$E$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1333,7 +1326,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$273:$B$275</c:f>
+              <c:f>'normal - large'!$B$273:$B$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1388,7 +1381,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1406,7 +1399,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$273:$C$275</c:f>
+              <c:f>'normal - large'!$C$273:$C$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1822,7 +1815,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$C$303</c:f>
+              <c:f>'normal - large'!$C$303</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1843,7 +1836,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'random - small'!$B$304:$B$311</c:f>
+              <c:f>'normal - large'!$B$304:$B$311</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1875,7 +1868,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'random - small'!$C$304:$C$311</c:f>
+              <c:f>'normal - large'!$C$304:$C$311</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2204,7 +2197,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
+              <c:f>'normal - large'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2239,7 +2232,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2257,7 +2250,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$34:$D$36</c:f>
+              <c:f>'normal - large'!$D$34:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2312,7 +2305,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
+              <c:f>('normal - large'!$E$4,'normal - large'!$E$5,'normal - large'!$E$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2330,7 +2323,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$34:$B$36</c:f>
+              <c:f>'normal - large'!$B$34:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2385,7 +2378,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2403,7 +2396,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$34:$C$36</c:f>
+              <c:f>'normal - large'!$C$34:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2821,7 +2814,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
+              <c:f>'normal - large'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2856,7 +2849,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2874,7 +2867,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$64:$D$66</c:f>
+              <c:f>'normal - large'!$D$64:$D$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2929,7 +2922,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
+              <c:f>('normal - large'!$E$4,'normal - large'!$E$5,'normal - large'!$E$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2947,7 +2940,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$64:$B$66</c:f>
+              <c:f>'normal - large'!$B$64:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3002,7 +2995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3020,7 +3013,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$64:$C$66</c:f>
+              <c:f>'normal - large'!$C$64:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3438,7 +3431,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
+              <c:f>'normal - large'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3473,7 +3466,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3491,7 +3484,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$91:$D$93</c:f>
+              <c:f>'normal - large'!$D$91:$D$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3546,7 +3539,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
+              <c:f>('normal - large'!$E$4,'normal - large'!$E$5,'normal - large'!$E$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3564,7 +3557,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$91:$B$93</c:f>
+              <c:f>'normal - large'!$B$91:$B$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3619,7 +3612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3637,7 +3630,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$91:$C$93</c:f>
+              <c:f>'normal - large'!$C$91:$C$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4055,7 +4048,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
+              <c:f>'normal - large'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4090,7 +4083,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4108,7 +4101,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$116:$D$118</c:f>
+              <c:f>'normal - large'!$D$116:$D$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4163,7 +4156,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
+              <c:f>('normal - large'!$E$4,'normal - large'!$E$5,'normal - large'!$E$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4181,7 +4174,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$116:$B$118</c:f>
+              <c:f>'normal - large'!$B$116:$B$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4236,7 +4229,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4254,7 +4247,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$116:$C$118</c:f>
+              <c:f>'normal - large'!$C$116:$C$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4672,7 +4665,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
+              <c:f>'normal - large'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4707,7 +4700,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4725,7 +4718,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$147:$D$149</c:f>
+              <c:f>'normal - large'!$D$147:$D$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4780,7 +4773,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
+              <c:f>('normal - large'!$E$4,'normal - large'!$E$5,'normal - large'!$E$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4798,7 +4791,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$147:$B$149</c:f>
+              <c:f>'normal - large'!$B$147:$B$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4853,7 +4846,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4871,7 +4864,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$147:$C$149</c:f>
+              <c:f>'normal - large'!$C$147:$C$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5294,7 +5287,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
+              <c:f>'normal - large'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5329,7 +5322,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5347,7 +5340,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$175:$D$177</c:f>
+              <c:f>'normal - large'!$D$175:$D$177</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5402,7 +5395,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
+              <c:f>('normal - large'!$E$4,'normal - large'!$E$5,'normal - large'!$E$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5420,7 +5413,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$175:$B$177</c:f>
+              <c:f>'normal - large'!$B$175:$B$177</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5475,7 +5468,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5493,7 +5486,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$175:$C$177</c:f>
+              <c:f>'normal - large'!$C$175:$C$177</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5911,7 +5904,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
+              <c:f>'normal - large'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5946,7 +5939,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5964,7 +5957,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$203:$D$205</c:f>
+              <c:f>'normal - large'!$D$203:$D$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6019,7 +6012,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
+              <c:f>('normal - large'!$E$4,'normal - large'!$E$5,'normal - large'!$E$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6037,7 +6030,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$203:$B$205</c:f>
+              <c:f>'normal - large'!$B$203:$B$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6092,7 +6085,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6110,7 +6103,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$203:$C$205</c:f>
+              <c:f>'normal - large'!$C$203:$C$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6528,7 +6521,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'random - small'!$D$3</c:f>
+              <c:f>'normal - large'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6563,7 +6556,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6581,7 +6574,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$D$242:$D$244</c:f>
+              <c:f>'normal - large'!$D$242:$D$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6636,7 +6629,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('random - small'!$E$4,'random - small'!$E$5,'random - small'!$E$6)</c:f>
+              <c:f>('normal - large'!$E$4,'normal - large'!$E$5,'normal - large'!$E$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6654,7 +6647,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$B$242:$B$244</c:f>
+              <c:f>'normal - large'!$B$242:$B$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6709,7 +6702,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'random - small'!$E$4:$E$6</c:f>
+              <c:f>'normal - large'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6727,7 +6720,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - small'!$C$242:$C$244</c:f>
+              <c:f>'normal - large'!$C$242:$C$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -14156,8 +14149,8 @@
   </sheetPr>
   <dimension ref="B2:K311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K286" sqref="K286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14174,17 +14167,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -14290,55 +14283,55 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="I32" s="12" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="I32" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
@@ -14367,13 +14360,13 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <v>4.4883728027343701E-2</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="3">
         <v>5.9837818145751898E-2</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="3">
         <v>5.0863885879516603E-2</v>
       </c>
       <c r="E34" s="3">
@@ -14382,112 +14375,112 @@
       <c r="G34" s="1">
         <v>1000</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34">
         <v>5.0720000000000001E-3</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34">
         <v>1.23349999999999E-2</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34">
         <v>6.7310999999999899E-3</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>4.3397426605224602E-2</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="3">
         <v>5.8836936950683497E-2</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="3">
         <v>4.8945999145507797E-2</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35">
         <v>5.0720000000000001E-3</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35">
         <v>9.6419999999999995E-3</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35">
         <v>5.9750999999999997E-3</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
+      <c r="B36" s="5">
         <v>6.0836076736450098E-2</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="3">
         <v>9.6767663955688393E-2</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="3">
         <v>6.7781400680541906E-2</v>
       </c>
       <c r="E36" s="3">
         <v>1000</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36">
         <v>5.0720000000000001E-3</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36">
         <v>8.6339999999999993E-3</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36">
         <v>5.8710999999999998E-3</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="I62" s="12" t="s">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="I62" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
@@ -14516,13 +14509,13 @@
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="7">
+      <c r="B64" s="5">
         <v>9.9635124206542904E-4</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="3">
         <v>3.9911270141601502E-3</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="3">
         <v>1.9944429397583002E-3</v>
       </c>
       <c r="E64" s="3">
@@ -14531,112 +14524,112 @@
       <c r="G64" s="1">
         <v>1000</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64">
         <v>2.42399999999999E-3</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="9">
+      <c r="B65" s="7">
         <v>9.9658966064453103E-4</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="3">
         <v>2.9947757720947201E-3</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="3">
         <v>1.89504623413085E-3</v>
       </c>
       <c r="E65" s="3">
         <v>100</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65">
         <v>2.42399999999999E-3</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="7">
+      <c r="B66" s="5">
         <v>1.953125E-3</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="3">
         <v>2.9919147491455E-3</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="3">
         <v>2.0945072174072201E-3</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J66">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K66">
         <v>2.42399999999999E-3</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="I89" s="12" t="s">
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="I89" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
@@ -14665,13 +14658,13 @@
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="7">
+      <c r="B91" s="5">
         <v>4.0890693664550698E-2</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="3">
         <v>0.112704515457153</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="3">
         <v>6.0090613365173302E-2</v>
       </c>
       <c r="E91" s="3">
@@ -14680,112 +14673,112 @@
       <c r="G91" s="1">
         <v>1000</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I91">
         <v>4.424E-3</v>
       </c>
-      <c r="J91" s="10">
+      <c r="J91">
         <v>5.3189999999999999E-3</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K91">
         <v>4.7449999999999897E-3</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="9">
+      <c r="B92" s="7">
         <v>0.30181837081909102</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="3">
         <v>0.55662345886230402</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="3">
         <v>0.39198276996612502</v>
       </c>
       <c r="E92" s="3">
         <v>100</v>
       </c>
-      <c r="I92" s="10">
+      <c r="I92">
         <v>4.9949999999999899E-3</v>
       </c>
-      <c r="J92" s="10">
+      <c r="J92">
         <v>7.2939999999999897E-3</v>
       </c>
-      <c r="K92" s="10">
+      <c r="K92">
         <v>5.6737999999999997E-3</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="7">
+      <c r="B93" s="5">
         <v>4.5172829627990696</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="3">
         <v>6.2054858207702601</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="3">
         <v>4.9471215724944999</v>
       </c>
       <c r="E93" s="3">
         <v>1000</v>
       </c>
-      <c r="I93" s="10">
+      <c r="I93">
         <v>5.19799999999999E-3</v>
       </c>
-      <c r="J93" s="10">
+      <c r="J93">
         <v>5.6179999999999997E-3</v>
       </c>
-      <c r="K93" s="10">
+      <c r="K93">
         <v>5.4535999999999899E-3</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="I114" s="12" t="s">
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="I114" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
@@ -14814,13 +14807,13 @@
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B116" s="7">
+      <c r="B116" s="5">
         <v>0.50923037528991699</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="3">
         <v>1.1449439525604199</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="3">
         <v>0.78601255416870097</v>
       </c>
       <c r="E116" s="3">
@@ -14829,112 +14822,112 @@
       <c r="G116" s="1">
         <v>1000</v>
       </c>
-      <c r="I116" s="10">
+      <c r="I116">
         <v>1.0811599999999999</v>
       </c>
-      <c r="J116" s="10">
+      <c r="J116">
         <v>1.19092</v>
       </c>
-      <c r="K116" s="10">
+      <c r="K116">
         <v>1.1799206</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="9">
+      <c r="B117" s="7">
         <v>0.53759479522705</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C117" s="3">
         <v>0.64687299728393499</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="3">
         <v>0.57575030326843202</v>
       </c>
       <c r="E117" s="3">
         <v>100</v>
       </c>
-      <c r="I117" s="10">
+      <c r="I117">
         <v>1.78894</v>
       </c>
-      <c r="J117" s="10">
+      <c r="J117">
         <v>1.81436199999999</v>
       </c>
-      <c r="K117" s="10">
+      <c r="K117">
         <v>1.81174579999999</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="7">
+      <c r="B118" s="5">
         <v>0.68647885322570801</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="3">
         <v>1.4278523921966499</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="3">
         <v>0.90089268684387203</v>
       </c>
       <c r="E118" s="3">
         <v>1000</v>
       </c>
-      <c r="I118" s="10">
+      <c r="I118">
         <v>1.9096139999999999</v>
       </c>
-      <c r="J118" s="10">
+      <c r="J118">
         <v>1.934931</v>
       </c>
-      <c r="K118" s="10">
+      <c r="K118">
         <v>1.9322690999999901</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="13"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B141" s="13"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
-      <c r="K141" s="13"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="13"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="I145" s="12" t="s">
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="I145" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
@@ -14963,13 +14956,13 @@
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B147" s="7">
+      <c r="B147" s="5">
         <v>0.153968095779418</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="3">
         <v>0.24937534332275299</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D147" s="3">
         <v>0.200872135162353</v>
       </c>
       <c r="E147" s="3">
@@ -14978,112 +14971,112 @@
       <c r="G147" s="1">
         <v>1000</v>
       </c>
-      <c r="I147" s="10">
+      <c r="I147">
         <v>7.228E-3</v>
       </c>
-      <c r="J147" s="10">
+      <c r="J147">
         <v>1.3564E-2</v>
       </c>
-      <c r="K147" s="10">
+      <c r="K147">
         <v>8.4657999999999903E-3</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="9">
+      <c r="B148" s="7">
         <v>0.36399650573730402</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="3">
         <v>0.66494560241699197</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="3">
         <v>0.44757394790649402</v>
       </c>
       <c r="E148" s="3">
         <v>100</v>
       </c>
-      <c r="I148" s="10">
+      <c r="I148">
         <v>7.8219999999999904E-3</v>
       </c>
-      <c r="J148" s="10">
+      <c r="J148">
         <v>1.16379999999999E-2</v>
       </c>
-      <c r="K148" s="10">
+      <c r="K148">
         <v>8.2606999999999993E-3</v>
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="7">
+      <c r="B149" s="5">
         <v>4.5475723743438703</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="3">
         <v>5.4439115524291903</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D149" s="3">
         <v>4.8179067134857103</v>
       </c>
       <c r="E149" s="3">
         <v>1000</v>
       </c>
-      <c r="I149" s="10">
+      <c r="I149">
         <v>7.8789999999999902E-3</v>
       </c>
-      <c r="J149" s="10">
+      <c r="J149">
         <v>1.1757E-2</v>
       </c>
-      <c r="K149" s="10">
+      <c r="K149">
         <v>8.4209000000000003E-3</v>
       </c>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B169" s="13" t="s">
+      <c r="B169" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="13"/>
-      <c r="K169" s="13"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B170" s="13"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="13"/>
-      <c r="J170" s="13"/>
-      <c r="K170" s="13"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-      <c r="J171" s="13"/>
-      <c r="K171" s="13"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-      <c r="I173" s="12" t="s">
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="I173" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J173" s="12"/>
-      <c r="K173" s="12"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="10"/>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B174" s="2" t="s">
@@ -15184,55 +15177,55 @@
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B197" s="13" t="s">
+      <c r="B197" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C197" s="13"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
-      <c r="F197" s="13"/>
-      <c r="G197" s="13"/>
-      <c r="H197" s="13"/>
-      <c r="I197" s="13"/>
-      <c r="J197" s="13"/>
-      <c r="K197" s="13"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
-      <c r="G198" s="13"/>
-      <c r="H198" s="13"/>
-      <c r="I198" s="13"/>
-      <c r="J198" s="13"/>
-      <c r="K198" s="13"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="9"/>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B199" s="13"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="13"/>
-      <c r="G199" s="13"/>
-      <c r="H199" s="13"/>
-      <c r="I199" s="13"/>
-      <c r="J199" s="13"/>
-      <c r="K199" s="13"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="9"/>
+      <c r="K199" s="9"/>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B201" s="12" t="s">
+      <c r="B201" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="12"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="I201" s="12" t="s">
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="I201" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J201" s="12"/>
-      <c r="K201" s="12"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B202" s="2" t="s">
@@ -15261,13 +15254,13 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="7">
+      <c r="B203" s="5">
         <v>3.7898540496826102E-2</v>
       </c>
-      <c r="C203" s="8">
+      <c r="C203" s="3">
         <v>0.218886613845825</v>
       </c>
-      <c r="D203" s="8">
+      <c r="D203" s="3">
         <v>0.116007900238037</v>
       </c>
       <c r="E203" s="3">
@@ -15276,112 +15269,112 @@
       <c r="G203" s="1">
         <v>1000</v>
       </c>
-      <c r="I203" s="10">
+      <c r="I203">
         <v>2.6080000000000001E-3</v>
       </c>
-      <c r="J203" s="10">
+      <c r="J203">
         <v>6.3850000000000001E-3</v>
       </c>
-      <c r="K203" s="10">
+      <c r="K203">
         <v>3.5553999999999998E-3</v>
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="9">
+      <c r="B204" s="7">
         <v>4.08878326416015E-2</v>
       </c>
-      <c r="C204" s="8">
+      <c r="C204" s="3">
         <v>4.8872709274291902E-2</v>
       </c>
-      <c r="D204" s="8">
+      <c r="D204" s="3">
         <v>4.3483734130859299E-2</v>
       </c>
       <c r="E204" s="3">
         <v>100</v>
       </c>
-      <c r="I204" s="10">
+      <c r="I204">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J204" s="10">
+      <c r="J204">
         <v>7.2899999999999996E-3</v>
       </c>
-      <c r="K204" s="10">
+      <c r="K204">
         <v>3.5726999999999998E-3</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="7">
+      <c r="B205" s="5">
         <v>3.78971099853515E-2</v>
       </c>
-      <c r="C205" s="8">
+      <c r="C205" s="3">
         <v>1.9645137786865201</v>
       </c>
-      <c r="D205" s="8">
+      <c r="D205" s="3">
         <v>0.23819384574890101</v>
       </c>
       <c r="E205" s="3">
         <v>1000</v>
       </c>
-      <c r="I205" s="10">
+      <c r="I205">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J205" s="10">
+      <c r="J205">
         <v>5.1812999999999998E-2</v>
       </c>
-      <c r="K205" s="10">
+      <c r="K205">
         <v>1.32817E-2</v>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="13" t="s">
+      <c r="B236" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C236" s="13"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="13"/>
-      <c r="F236" s="13"/>
-      <c r="G236" s="13"/>
-      <c r="H236" s="13"/>
-      <c r="I236" s="13"/>
-      <c r="J236" s="13"/>
-      <c r="K236" s="13"/>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="9"/>
+      <c r="K236" s="9"/>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="13"/>
-      <c r="C237" s="13"/>
-      <c r="D237" s="13"/>
-      <c r="E237" s="13"/>
-      <c r="F237" s="13"/>
-      <c r="G237" s="13"/>
-      <c r="H237" s="13"/>
-      <c r="I237" s="13"/>
-      <c r="J237" s="13"/>
-      <c r="K237" s="13"/>
+      <c r="B237" s="9"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="9"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="9"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="13"/>
-      <c r="C238" s="13"/>
-      <c r="D238" s="13"/>
-      <c r="E238" s="13"/>
-      <c r="F238" s="13"/>
-      <c r="G238" s="13"/>
-      <c r="H238" s="13"/>
-      <c r="I238" s="13"/>
-      <c r="J238" s="13"/>
-      <c r="K238" s="13"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="12" t="s">
+      <c r="B240" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
-      <c r="E240" s="12"/>
-      <c r="I240" s="12" t="s">
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10"/>
+      <c r="I240" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J240" s="12"/>
-      <c r="K240" s="12"/>
+      <c r="J240" s="10"/>
+      <c r="K240" s="10"/>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
@@ -15410,13 +15403,13 @@
       </c>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B242" s="7">
+      <c r="B242" s="5">
         <v>6.7992448806762695E-2</v>
       </c>
-      <c r="C242" s="8">
+      <c r="C242" s="3">
         <v>0.19405317306518499</v>
       </c>
-      <c r="D242" s="8">
+      <c r="D242" s="3">
         <v>0.128005766868591</v>
       </c>
       <c r="E242" s="3">
@@ -15425,112 +15418,112 @@
       <c r="G242" s="1">
         <v>1000</v>
       </c>
-      <c r="I242" s="10">
+      <c r="I242">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J242" s="10">
+      <c r="J242">
         <v>6.74699999999999E-3</v>
       </c>
-      <c r="K242" s="10">
+      <c r="K242">
         <v>3.7569999999999999E-3</v>
       </c>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B243" s="9">
+      <c r="B243" s="7">
         <v>3.7897586822509703E-2</v>
       </c>
-      <c r="C243" s="8">
+      <c r="C243" s="3">
         <v>4.8873662948608398E-2</v>
       </c>
-      <c r="D243" s="8">
+      <c r="D243" s="3">
         <v>4.1206026077270502E-2</v>
       </c>
       <c r="E243" s="3">
         <v>100</v>
       </c>
-      <c r="I243" s="10">
+      <c r="I243">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J243" s="10">
+      <c r="J243">
         <v>5.1019999999999998E-3</v>
       </c>
-      <c r="K243" s="10">
+      <c r="K243">
         <v>3.2612000000000001E-3</v>
       </c>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B244" s="7">
+      <c r="B244" s="5">
         <v>3.7906646728515597E-2</v>
       </c>
-      <c r="C244" s="8">
+      <c r="C244" s="3">
         <v>4.2892217636108398E-2</v>
       </c>
-      <c r="D244" s="8">
+      <c r="D244" s="3">
         <v>4.0753054618835403E-2</v>
       </c>
       <c r="E244" s="3">
         <v>1000</v>
       </c>
-      <c r="I244" s="10">
+      <c r="I244">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J244" s="10">
+      <c r="J244">
         <v>7.7489999999999998E-3</v>
       </c>
-      <c r="K244" s="10">
+      <c r="K244">
         <v>3.72419999999999E-3</v>
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B267" s="13" t="s">
+      <c r="B267" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="13"/>
-      <c r="D267" s="13"/>
-      <c r="E267" s="13"/>
-      <c r="F267" s="13"/>
-      <c r="G267" s="13"/>
-      <c r="H267" s="13"/>
-      <c r="I267" s="13"/>
-      <c r="J267" s="13"/>
-      <c r="K267" s="13"/>
+      <c r="C267" s="9"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+      <c r="H267" s="9"/>
+      <c r="I267" s="9"/>
+      <c r="J267" s="9"/>
+      <c r="K267" s="9"/>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B268" s="13"/>
-      <c r="C268" s="13"/>
-      <c r="D268" s="13"/>
-      <c r="E268" s="13"/>
-      <c r="F268" s="13"/>
-      <c r="G268" s="13"/>
-      <c r="H268" s="13"/>
-      <c r="I268" s="13"/>
-      <c r="J268" s="13"/>
-      <c r="K268" s="13"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="9"/>
+      <c r="I268" s="9"/>
+      <c r="J268" s="9"/>
+      <c r="K268" s="9"/>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B269" s="13"/>
-      <c r="C269" s="13"/>
-      <c r="D269" s="13"/>
-      <c r="E269" s="13"/>
-      <c r="F269" s="13"/>
-      <c r="G269" s="13"/>
-      <c r="H269" s="13"/>
-      <c r="I269" s="13"/>
-      <c r="J269" s="13"/>
-      <c r="K269" s="13"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9"/>
+      <c r="H269" s="9"/>
+      <c r="I269" s="9"/>
+      <c r="J269" s="9"/>
+      <c r="K269" s="9"/>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B271" s="12" t="s">
+      <c r="B271" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C271" s="12"/>
-      <c r="D271" s="12"/>
-      <c r="E271" s="12"/>
-      <c r="I271" s="12" t="s">
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="I271" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J271" s="12"/>
-      <c r="K271" s="12"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
@@ -15559,13 +15552,13 @@
       </c>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B273" s="7">
+      <c r="B273" s="5">
         <v>0.87467932701110795</v>
       </c>
-      <c r="C273" s="8">
+      <c r="C273" s="3">
         <v>1.91996598243713</v>
       </c>
-      <c r="D273" s="8">
+      <c r="D273" s="3">
         <v>1.21752502918243</v>
       </c>
       <c r="E273" s="3">
@@ -15574,99 +15567,99 @@
       <c r="G273" s="1">
         <v>1000</v>
       </c>
-      <c r="I273" s="10">
+      <c r="I273">
         <v>5.9400000000000002E-4</v>
       </c>
-      <c r="J273" s="10">
+      <c r="J273">
         <v>7.1199999999999996E-4</v>
       </c>
-      <c r="K273" s="10">
+      <c r="K273">
         <v>6.2029999999999995E-4</v>
       </c>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B274" s="9">
+      <c r="B274" s="7">
         <v>0.865711450576782</v>
       </c>
-      <c r="C274" s="8">
+      <c r="C274" s="3">
         <v>0.95210862159729004</v>
       </c>
-      <c r="D274" s="8">
+      <c r="D274" s="3">
         <v>0.90015230178832994</v>
       </c>
       <c r="E274" s="3">
         <v>100</v>
       </c>
-      <c r="I274" s="10">
+      <c r="I274">
         <v>5.9099999999999897E-4</v>
       </c>
-      <c r="J274" s="10">
+      <c r="J274">
         <v>7.1199999999999996E-4</v>
       </c>
-      <c r="K274" s="10">
+      <c r="K274">
         <v>6.5550000000000005E-4</v>
       </c>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B275" s="7">
+      <c r="B275" s="5">
         <v>0.95911145210266102</v>
       </c>
-      <c r="C275" s="8">
+      <c r="C275" s="3">
         <v>1.5808789730071999</v>
       </c>
-      <c r="D275" s="8">
+      <c r="D275" s="3">
         <v>1.1053529262542701</v>
       </c>
       <c r="E275" s="3">
         <v>1000</v>
       </c>
-      <c r="I275" s="10">
+      <c r="I275">
         <v>5.6700000000000001E-4</v>
       </c>
-      <c r="J275" s="10">
+      <c r="J275">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="K275" s="10">
+      <c r="K275">
         <v>6.6819999999999998E-4</v>
       </c>
     </row>
     <row r="297" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B297" s="14" t="s">
+      <c r="B297" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C297" s="13"/>
-      <c r="D297" s="13"/>
-      <c r="E297" s="13"/>
-      <c r="F297" s="13"/>
-      <c r="G297" s="13"/>
-      <c r="H297" s="13"/>
-      <c r="I297" s="13"/>
-      <c r="J297" s="13"/>
-      <c r="K297" s="13"/>
+      <c r="C297" s="9"/>
+      <c r="D297" s="9"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="9"/>
+      <c r="I297" s="9"/>
+      <c r="J297" s="9"/>
+      <c r="K297" s="9"/>
     </row>
     <row r="298" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B298" s="13"/>
-      <c r="C298" s="13"/>
-      <c r="D298" s="13"/>
-      <c r="E298" s="13"/>
-      <c r="F298" s="13"/>
-      <c r="G298" s="13"/>
-      <c r="H298" s="13"/>
-      <c r="I298" s="13"/>
-      <c r="J298" s="13"/>
-      <c r="K298" s="13"/>
+      <c r="B298" s="9"/>
+      <c r="C298" s="9"/>
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="9"/>
+      <c r="I298" s="9"/>
+      <c r="J298" s="9"/>
+      <c r="K298" s="9"/>
     </row>
     <row r="299" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B299" s="13"/>
-      <c r="C299" s="13"/>
-      <c r="D299" s="13"/>
-      <c r="E299" s="13"/>
-      <c r="F299" s="13"/>
-      <c r="G299" s="13"/>
-      <c r="H299" s="13"/>
-      <c r="I299" s="13"/>
-      <c r="J299" s="13"/>
-      <c r="K299" s="13"/>
+      <c r="B299" s="9"/>
+      <c r="C299" s="9"/>
+      <c r="D299" s="9"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="9"/>
+      <c r="H299" s="9"/>
+      <c r="I299" s="9"/>
+      <c r="J299" s="9"/>
+      <c r="K299" s="9"/>
     </row>
     <row r="303" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
@@ -15680,7 +15673,7 @@
       <c r="B304" t="s">
         <v>17</v>
       </c>
-      <c r="C304" s="11">
+      <c r="C304" s="8">
         <f>D36</f>
         <v>6.7781400680541906E-2</v>
       </c>
@@ -15689,7 +15682,7 @@
       <c r="B305" t="s">
         <v>18</v>
       </c>
-      <c r="C305" s="11">
+      <c r="C305" s="8">
         <f>D66</f>
         <v>2.0945072174072201E-3</v>
       </c>
@@ -15698,7 +15691,7 @@
       <c r="B306" t="s">
         <v>19</v>
       </c>
-      <c r="C306" s="11">
+      <c r="C306" s="8">
         <f>D93</f>
         <v>4.9471215724944999</v>
       </c>
@@ -15750,6 +15743,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B28:K30"/>
+    <mergeCell ref="B58:K60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="B85:K87"/>
+    <mergeCell ref="B140:K142"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="I89:K89"/>
+    <mergeCell ref="B110:K112"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="I145:K145"/>
+    <mergeCell ref="B169:K171"/>
+    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="I173:K173"/>
     <mergeCell ref="B197:K199"/>
     <mergeCell ref="B201:E201"/>
     <mergeCell ref="I201:K201"/>
@@ -15760,26 +15773,6 @@
     <mergeCell ref="B267:K269"/>
     <mergeCell ref="B271:E271"/>
     <mergeCell ref="I271:K271"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="I145:K145"/>
-    <mergeCell ref="B169:K171"/>
-    <mergeCell ref="B173:E173"/>
-    <mergeCell ref="I173:K173"/>
-    <mergeCell ref="B58:K60"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="B85:K87"/>
-    <mergeCell ref="B140:K142"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B28:K30"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="I89:K89"/>
-    <mergeCell ref="B110:K112"/>
-    <mergeCell ref="I114:K114"/>
-    <mergeCell ref="B114:E114"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
